--- a/biology/Zoologie/Heteropteryx_dilatata/Heteropteryx_dilatata.xlsx
+++ b/biology/Zoologie/Heteropteryx_dilatata/Heteropteryx_dilatata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteropteryx dilalata  appelé aussi phasme géant de Malaisie ou phasme géant dilaté[1] est une espèce de grands phasmes originaire des forêts humides de Malaisie, Java, Thaïlande, Sarawak et Sumatra.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteropteryx dilalata  appelé aussi phasme géant de Malaisie ou phasme géant dilaté est une espèce de grands phasmes originaire des forêts humides de Malaisie, Java, Thaïlande, Sarawak et Sumatra.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Actif la nuit, ce grand phasme passe la journée totalement immobile, caché dans le feuillage dont il se nourrit. 
-La femelle adulte, très spectaculaire, mesure environ 15 cm de long avec une belle couleur vert vif. Elle se fond à la perfection à son environnement. Ce phasme femelle ressemble à un gros fruit épineux, à un concombre sur pattes[2] plus qu'à une feuille. La femelle porte des ailes vestigiales courtes et trapues ; bien que non-fonctionnelles pour voler, celles-ci sont fréquemment utilisées comme moyen de dissuasion.
-Le mâle mesure environ 12 cm et son corps est beaucoup plus élancé que celui de la femelle. Il est d’un beau brun semblable à l'écorce d'arbre. Il a des ailes[3] et peut voler au contraire de la femelle.
+La femelle adulte, très spectaculaire, mesure environ 15 cm de long avec une belle couleur vert vif. Elle se fond à la perfection à son environnement. Ce phasme femelle ressemble à un gros fruit épineux, à un concombre sur pattes plus qu'à une feuille. La femelle porte des ailes vestigiales courtes et trapues ; bien que non-fonctionnelles pour voler, celles-ci sont fréquemment utilisées comme moyen de dissuasion.
+Le mâle mesure environ 12 cm et son corps est beaucoup plus élancé que celui de la femelle. Il est d’un beau brun semblable à l'écorce d'arbre. Il a des ailes et peut voler au contraire de la femelle.
 Mâles et femelles ont le corps couverts de piquants protecteurs, des pattes terminées par une paire de griffes recourbées et acérées pour s'accrocher ou se défendre, des yeux à facettes et deux longues antennes sensible aux déplacements de l'air.
 H. dilatata n'est pas  lucifuge, il ne fuit pas la lumière. Il se contente de rester à l’endroit où il était à l’aurore. 
 </t>
@@ -546,7 +560,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nymphes et les adultes mangent le feuillage de nombreuses plantes dont celui du Durian, du Goyavier et du Manguier (mais aussi du Chêne, des Ronces (Rubus) et autres Rosacées, Merisier, Châtaignier ...).
 </t>
@@ -577,7 +593,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mois après sa mue imaginale, la femelle commence à pondre, accouplée ou non, tandis que les mâles deviennent matures sexuellement au bout d’un peu plus de deux semaines.
 Comme chez presque tous les phasmes, le mâle, quand il repère une femelle, l’enfourche et s’accouple. La copulation dure de nombreuses heures, voire jusqu'au lendemain. 
@@ -610,7 +628,9 @@
           <t>Ponte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle chargée d’œufs a un abdomen distendu et volumineux. Elle pond dans le sol un seul œuf à la fois. Elle descend alors de sa plante hôte et utilise son ovipositeur (oviscapte) pour enfoncer celui-ci dans le substrat et se leste de son œuf.  Elle peut pondre ainsi, 1, 2 ou même 3 œufs par nuit. Elle pond jusqu'à 150 œufs au cours de sa vie. 
 Les œufs sont de teinte grisâtre plus ou moins nuancé et mesurent quelque 9 mm de long par 5 mm de diamètre. L'œuf d'H. dilatata est l'un des, voire le plus gros des œufs de phasmes.
@@ -645,8 +665,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moyens de défense
-En frottant ses ailes les unes contre les autres, ce phasme produit un bruit, comme un froissement parfaitement audible. Le son est moins fort chez le mâle. En plus de l’effet sonore, H. dilatata utilise ses pattes arrière, très épineuses pour éperonner un éventuel prédateur. 
+          <t>Moyens de défense</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En frottant ses ailes les unes contre les autres, ce phasme produit un bruit, comme un froissement parfaitement audible. Le son est moins fort chez le mâle. En plus de l’effet sonore, H. dilatata utilise ses pattes arrière, très épineuses pour éperonner un éventuel prédateur. 
 Dérangé, le phasme prend une posture d’intimidation, pattes arrière relevées et toutes grandes ouvertes. En les refermant, il transperce tout ce qui peut s'y retrouver.
 Le phasme possède pour compléter son arsenal défensif, de nombreuses épines qui, bien que peu abondantes sur l’abdomen, couvrent son thorax, ce qui le rend, surtout chez la femelle, très difficile à saisir.
 Comme ultime moyen de défense, jeunes comme adultes se laissent tomber, atterrissant souvent au sol ou sur une autre feuille ou branche.
@@ -679,7 +704,9 @@
           <t>Croissance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nouveau-nés de couleur brun–beige nuancé se fondent avec l’écorce. Ils mesurent environ 3 cm de long, avec dès la naissance, des différences morphologiques entre les deux sexes. Les mâles ont en effet une tache blanche sur l'abdomen bien reconnaissable, quant aux femelles elles sont reconnaissable à l'oviscapte, organe en forme de pointe au bout de l'abdomen qui servira à l'adulte à enterrer ses œufs. 
 Ils resteront de la même couleur pendant les mues successives.
@@ -714,7 +741,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phasme ayant un cycle de vie très long, cela prend environ 12 mois aux jeunes pour devenir adultes.  La longévité totale peut aller de deux ans à trois ans. Incubation des œufs de 8 à 18 mois voire plus.
 </t>
